--- a/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
+++ b/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JourneyToFSWD\Day000_Prior_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541DF11-43C4-4CAD-81C1-203F336257BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107D7DC-68B5-450B-B1CA-BBE4C61B88B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11172,50 +11172,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -11675,10 +11651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -14807,7 +14783,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A3:A403">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14831,10 +14807,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17923,7 +17899,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A26 A28:A42 A44:A58 A60:A74 A76:A95 A97:A116 A118:A137 A139:A168 A171:A177 A179:A187 A189:A196 A198:A203 A205:A215 A217:A226 A228:A237 A239:A249 A251:A260 A262:A292 A294:A313 A315:A334 A336:A355 A357:A376 A378:A403">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18152,12 +18128,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:U1">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18386,12 +18362,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:U1">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18570,12 +18546,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A16">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P1">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18755,12 +18731,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A16">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P1">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18941,12 +18917,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A16">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P1">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18960,14 +18936,14 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="14" customWidth="1"/>
     <col min="2" max="2" width="55.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="19" customWidth="1"/>
     <col min="4" max="16384" width="8.5703125" style="14"/>
   </cols>
   <sheetData>
@@ -18976,7 +18952,7 @@
       <c r="B1" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -18998,7 +18974,7 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
       <c r="D2" s="13"/>
@@ -19022,7 +18998,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19033,7 +19009,7 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19044,7 +19020,7 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19055,7 +19031,7 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19066,7 +19042,7 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19077,7 +19053,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
     </row>
@@ -19088,6 +19064,9 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -19147,12 +19126,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A16">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$A1=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:P1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19165,6 +19139,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:P1">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$A1=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
+++ b/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JourneyToFSWD\Day000_Prior_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107D7DC-68B5-450B-B1CA-BBE4C61B88B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F3245-14C8-4816-AF8C-0404717E5F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18936,7 +18936,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
+++ b/Day000_Prior_preparation/365DAysWorkshopRoutin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JourneyToFSWD\Day000_Prior_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F3245-14C8-4816-AF8C-0404717E5F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD165A-6EE4-4CC9-9058-CA2038D4E16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18936,7 +18936,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19074,6 +19074,9 @@
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
